--- a/src/main/resources/autoinsuresavings.xlsx
+++ b/src/main/resources/autoinsuresavings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tayu\Code\Java_Workspace\MdaChecker\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14457F6B-C59D-48F3-8EA6-B7ED71210286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73F82CC-E307-4902-8846-D15EB594855A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{14124D53-9B3B-4E45-AAD6-B5BAF1FC80CE}"/>
+    <workbookView xWindow="1536" yWindow="1104" windowWidth="9600" windowHeight="11856" xr2:uid="{14124D53-9B3B-4E45-AAD6-B5BAF1FC80CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,15 +41,9 @@
     <t>Free Auto Insurance Comparison</t>
   </si>
   <si>
-    <t>mdaTextHomepage</t>
-  </si>
-  <si>
     <t>mdaTextHeader</t>
   </si>
   <si>
-    <t>MdaTitle</t>
-  </si>
-  <si>
     <t>mdaText</t>
   </si>
   <si>
@@ -68,9 +62,6 @@
     <t>Compare Auto Insurance Quotes</t>
   </si>
   <si>
-    <t>pageTitlenewTab</t>
-  </si>
-  <si>
     <t>Fast, Free Auto Insurance Quotes</t>
   </si>
   <si>
@@ -93,6 +84,15 @@
   </si>
   <si>
     <t>Looking to save on cheap auto insurance? Compare quotes from the top auto insurance companies and save up to $610.</t>
+  </si>
+  <si>
+    <t>mdaTextHomePage</t>
+  </si>
+  <si>
+    <t>pageTitleNewTab</t>
+  </si>
+  <si>
+    <t>mdaTitle</t>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -462,20 +462,20 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -483,7 +483,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -491,58 +491,58 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1">
         <v>99999</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
